--- a/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/CoberturaMinsalMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/CoberturaMinsalMPI</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -338,7 +338,7 @@
     <t>DirigenteVecinal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal}
 </t>
   </si>
   <si>
@@ -355,7 +355,7 @@
     <t>Prais</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prais}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prais}
 </t>
   </si>
   <si>
@@ -368,7 +368,7 @@
     <t>Antuco</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco}
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>Prilonco</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
 </t>
   </si>
   <si>
@@ -767,7 +767,7 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSPrevision</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSPrevision</t>
   </si>
   <si>
     <t>Coverage.class.type.id</t>
@@ -1507,7 +1507,7 @@
     <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1521,7 +1521,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="139.65234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-CoberturaMinsalMPI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
